--- a/pearson_tables/t2m_netherlands-2-7.xlsx
+++ b/pearson_tables/t2m_netherlands-2-7.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6700830747216755</v>
+        <v>0.6584592101057023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6985503803959566</v>
+        <v>0.668114834890813</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.567721218886324</v>
+        <v>-0.5665637478164716</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8539404718968923</v>
+        <v>0.8520430225766238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6923938458769865</v>
+        <v>-0.7096625526356789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7853370240879385</v>
+        <v>0.7894721557494051</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7244311800418389</v>
+        <v>0.702312313038257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7207361403054922</v>
+        <v>-0.7167876421470517</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7542467165003598</v>
+        <v>-0.7865315441877307</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8030126704990077</v>
+        <v>-0.8278440846203888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7301016525339531</v>
+        <v>0.7376371714873011</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7269104712754273</v>
+        <v>0.7673014644255363</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7765435693566923</v>
+        <v>0.7706536852596805</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5131959803778051</v>
+        <v>-0.5117253303545153</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8144796384992701</v>
+        <v>0.8192720758980491</v>
       </c>
     </row>
     <row r="7">
@@ -538,10 +538,10 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>-0.6931149170025831</v>
+        <v>0.6841826945460614</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6170593777475147</v>
+        <v>0.6429007515023405</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5561399222027882</v>
+        <v>0.5545375003256149</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6226489052368762</v>
+        <v>-0.6242195205917582</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5981548515045524</v>
+        <v>0.6505531994113342</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6294518516884132</v>
+        <v>-0.6119970731803873</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.747515682426331</v>
+        <v>-0.7348060260273002</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6053550729554232</v>
+        <v>0.6668537596130117</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-7.xlsx
+++ b/pearson_tables/t2m_netherlands-2-7.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6584592101057023</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.668114834890813</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5665637478164716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8520430225766238</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7096625526356789</v>
+        <v>-0.6881607213224817</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7894721557494051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.702312313038257</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7167876421470517</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7865315441877307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8278440846203888</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7376371714873011</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7673014644255363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7706536852596805</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5117253303545153</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8192720758980491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -536,12 +536,14 @@
           <t>EA_P</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.6841826945460614</v>
+        <v>-0.6641192343607489</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6429007515023405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5545375003256149</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6242195205917582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6505531994113342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6119970731803873</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7348060260273002</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6668537596130117</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
